--- a/Casos de prueba.xlsx
+++ b/Casos de prueba.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oix\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oix\Documents\GitHub\EntregaFinal_DanielSosa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B686F915-7D92-48E8-A1A2-ECBEC4626C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE365281-98F9-4F96-81B0-EBC1245FA40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Nombre del proyecto:</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Registro de personas</t>
+  </si>
+  <si>
+    <t>Python Version: 3.11.7    Django Version: 5.0.1</t>
   </si>
 </sst>
 </file>
@@ -445,7 +448,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -483,8 +486,8 @@
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2">
-        <v>1</v>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
